--- a/biology/Botanique/Pachystachys/Pachystachys.xlsx
+++ b/biology/Botanique/Pachystachys/Pachystachys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pachystachys regroupe une douzaine d'espèces d'arbustes de la famille des Acanthacées originaires des régions tropicales d'Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Pachy-stachys vient des mots grecs παχύς / pakhýs, épais, et σταχυς / stachys, « épis, fruit, rejeton », littéralement « épis épais », en référence à ses épaisses inflorescences. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   16 mai 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   16 mai 2012
 Pachystachys badiospica Wassh.
 Pachystachys coccinea (Aubl.) Nees - Plumet d'officier
 Pachystachys fosteri Wassh.
@@ -557,7 +573,7 @@
 Pachystachys rosea Wassh.
 Pachystachys schunkei Wassh.
 Pachystachys spicata (Ruiz &amp; Pav.) Wassh.
-Selon NCBI  (6 Aug 2010)[2] :
+Selon NCBI  (6 Aug 2010) :
 Pachystachys coccinea
 Pachystachys lutea</t>
         </is>
@@ -587,9 +603,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]  16 mai 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"  16 mai 2012
 Pachystachys asperula Nees = Pachystachys spicata (Ruiz &amp; Pav.) Wassh.
 Pachystachys latior Nees = Pachystachys spicata (Ruiz &amp; Pav.) Wassh.
 Pachystachys nutans Nees = Mirandea nutans (Nees) T.F. Daniel.
